--- a/fuels_guide/jp/indesign/phase1/photodescriptions.xlsx
+++ b/fuels_guide/jp/indesign/phase1/photodescriptions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\thesis\fuels_guide\jp\indesign\phase1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fuels_guide\jp\indesign\phase1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CO_GR" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="FI_GR" sheetId="4" r:id="rId4"/>
     <sheet name="ME_ON" sheetId="5" r:id="rId5"/>
     <sheet name="ME_SC" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="BM_GR" sheetId="7" r:id="rId7"/>
+    <sheet name="BM_SC" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
   <si>
     <t>Greenville Bench</t>
   </si>
   <si>
-    <t>1804 m (5919 ft)</t>
-  </si>
-  <si>
     <t>Cover (%)</t>
   </si>
   <si>
@@ -78,29 +75,68 @@
     <t>subplot14</t>
   </si>
   <si>
-    <t>subplot30</t>
-  </si>
-  <si>
-    <t>subplot36</t>
-  </si>
-  <si>
     <t>Scipio</t>
   </si>
   <si>
     <t>1750 m (5741 ft)</t>
+  </si>
+  <si>
+    <t>Annual Grass</t>
+  </si>
+  <si>
+    <t>Perennial      Grass</t>
+  </si>
+  <si>
+    <t>1804 m | 5919 ft</t>
+  </si>
+  <si>
+    <t>1712 m | 5617 ft</t>
+  </si>
+  <si>
+    <t>1736 m | 5696 ft</t>
+  </si>
+  <si>
+    <t>1750 m | 5741 ft</t>
+  </si>
+  <si>
+    <t>Perennial Grass</t>
+  </si>
+  <si>
+    <t>1768 m | 5801 ft</t>
+  </si>
+  <si>
+    <t>1694 m | 5558 ft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -128,16 +164,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -145,6 +314,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,272 +604,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1015625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>42899</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>42899</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B7" s="4">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="B11" s="4">
         <v>47</v>
       </c>
+      <c r="C11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="5">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.20703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>42549</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>42549</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="16">
+        <v>20</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="18">
+        <v>42565</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>42549</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>42565</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="G8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="G9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="B10" s="4">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="9">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,89 +1025,170 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.68359375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="16">
+        <v>20</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="18">
+        <v>42904</v>
+      </c>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>42904</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>42904</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>27</v>
       </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="9">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,90 +1197,171 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3671875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="D1" t="s">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="16">
+        <v>20</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="F2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="18">
+        <v>42604</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>42604</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>42604</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="B9" s="4">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="G9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>21</v>
       </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="9">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -881,84 +1369,171 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="16">
+        <v>20</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16"/>
+      <c r="G2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="G3" s="18">
+        <v>42942</v>
+      </c>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>42942</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
-        <v>42942</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="B8" s="4">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="9">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -966,24 +1541,244 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>42915</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>42944</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>